--- a/examples/Australia OGD/coloured labour/counters_summary.xlsx
+++ b/examples/Australia OGD/coloured labour/counters_summary.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/Australia OGD/coloured labour/counters_summary.xlsx
+++ b/examples/Australia OGD/coloured labour/counters_summary.xlsx
@@ -360,77 +360,102 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>COMPLETENESSMANDATORY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSMANDATORY SCORE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL SCORE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PRECISION</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PRECISION SCORE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>UNIQUENESS</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UNIQUENESSCOMPOSITE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>UNIQUENESS SCORE</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY SCORE</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>FORMATCONSISTENCY</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FORMATCONSISTENCYPREFIX</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCESIZE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCETYPE</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMIN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMAX</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCEENUM</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RULECOMPLIANCE</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>MANDATORYCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>OPTIONALCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AVAILABILITY</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>CONFORMANCE</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>FORMATCONSISTENCY SCORE</t>
         </is>
       </c>
     </row>
@@ -441,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -474,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -483,13 +508,28 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -522,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -531,6 +571,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -585,6 +640,21 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -593,10 +663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -617,16 +687,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -635,6 +705,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -645,10 +730,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -669,16 +754,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -687,6 +772,21 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,10 +797,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -730,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -739,6 +839,21 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,7 +864,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -773,16 +888,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -791,6 +906,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,10 +931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -834,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -843,6 +973,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,10 +998,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -886,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -895,6 +1040,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,10 +1065,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -938,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -947,6 +1107,21 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/examples/Australia OGD/coloured labour/counters_summary.xlsx
+++ b/examples/Australia OGD/coloured labour/counters_summary.xlsx
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001</v>
+        <v>0.001199</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001</v>
+        <v>0.001199</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001</v>
+        <v>0.001199</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004</v>
+        <v>0.007196</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001</v>
+        <v>0.001199</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>325</v>
       </c>
       <c r="K8" t="n">
-        <v>0.049</v>
+        <v>0.097451</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001</v>
+        <v>0.001199</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001</v>
+        <v>0.001499</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001</v>
+        <v>0.001199</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
